--- a/Jogos_do_Dia/2023-02-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -610,8 +610,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>8937</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>44962.875</v>
@@ -630,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4.56</v>
+        <v>5.58</v>
       </c>
       <c r="I2" t="n">
         <v>1.06</v>
@@ -651,10 +653,10 @@
         <v>3.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O2" t="n">
         <v>1.41</v>
@@ -718,8 +720,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>8595</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>44962.89583333334</v>
@@ -826,8 +830,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>8595</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>44962.89583333334</v>
@@ -934,8 +940,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>8595</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>44962.89583333334</v>
@@ -1064,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.3</v>
+        <v>3.16</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1085,10 +1093,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="N6" t="n">
-        <v>2.11</v>
+        <v>2.51</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1174,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.62</v>
+        <v>3.13</v>
       </c>
       <c r="I7" t="n">
         <v>1.08</v>
@@ -1195,10 +1203,10 @@
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="N7" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1305,10 +1313,10 @@
         <v>2.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="N8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1394,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
         <v>1.11</v>
@@ -1415,10 +1423,10 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="N9" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O9" t="n">
         <v>1.58</v>
@@ -1504,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>6.76</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1525,10 +1533,10 @@
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1614,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1635,10 +1643,10 @@
         <v>3.82</v>
       </c>
       <c r="M11" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="N11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -1704,583 +1712,583 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44963.58333333334</v>
+        <v>44963.60416666666</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>0.9</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE12" t="n">
         <v>1.62</v>
       </c>
-      <c r="Y12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44963.60416666666</v>
+        <v>44963.625</v>
       </c>
       <c r="C13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Cracovia Kraków</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J13" t="n">
         <v>8.5</v>
       </c>
       <c r="K13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="L13" t="n">
         <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="N13" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="U13" t="n">
         <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9</v>
+        <v>0.63</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.75</v>
+        <v>2.91</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.77</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.74</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Germany 3. Liga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>44963.625</v>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Waldhof Mannheim</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cracovia Kraków</t>
+          <t>Verl</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AE14" t="n">
         <v>1.4</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AF14" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Germany 3. Liga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>44963.625</v>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Waldhof Mannheim</t>
+          <t>SSC Farul</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Verl</t>
+          <t>CS U Craiova</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z15" t="n">
         <v>3.5</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>3.08</v>
-      </c>
       <c r="AA15" t="n">
-        <v>1.51</v>
+        <v>2.05</v>
       </c>
       <c r="AB15" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.74</v>
+        <v>2.39</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.19</v>
+        <v>3.28</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.98</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>44963.625</v>
       </c>
       <c r="C16" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SSC Farul</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS U Craiova</t>
+          <t>Sporting Covilhã</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="L16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.7</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.4</v>
-      </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
         <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="T16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1.28</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AB16" t="n">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.2</v>
+        <v>4.05</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.39</v>
+        <v>1.43</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.28</v>
+        <v>1.74</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.4</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44963.625</v>
+        <v>44963.66666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sporting Covilhã</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2295,70 +2303,70 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="N17" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AG17" t="n">
         <v>2.7</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="X17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AH17" t="n">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="18">
@@ -2371,211 +2379,211 @@
         <v>44963.66666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.86</v>
+        <v>4.35</v>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>5.07</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>1.59</v>
       </c>
       <c r="I18" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.33</v>
       </c>
-      <c r="L18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>2.86</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>2.35</v>
       </c>
       <c r="T18" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>2.7</v>
       </c>
       <c r="X18" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.37</v>
+        <v>1.95</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.11</v>
+        <v>3.39</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.44</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>3.46</v>
+        <v>1.29</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AF18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AG18" t="n">
         <v>2.02</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>2.7</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
         <v>44963.66666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Paços de Ferreira</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.35</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>5.07</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>1.59</v>
+        <v>3.89</v>
       </c>
       <c r="I19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.02</v>
       </c>
-      <c r="J19" t="n">
-        <v>15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="Z19" t="n">
         <v>2.63</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>3.39</v>
-      </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="n">
         <v>1.18</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AH19" t="n">
         <v>2.7</v>
@@ -2584,1082 +2592,1086 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44963.66666666666</v>
+        <v>44963.69791666666</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Paços de Ferreira</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.08</v>
       </c>
       <c r="J20" t="n">
-        <v>8.85</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
         <v>1.4</v>
       </c>
       <c r="L20" t="n">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="M20" t="n">
         <v>2.2</v>
       </c>
       <c r="N20" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P20" t="n">
         <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
         <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="T20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.63</v>
+        <v>3.35</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
         <v>44963.69791666666</v>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.62</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="L21" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N21" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
         <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U21" t="n">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="X21" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44963.69791666666</v>
+        <v>44963.70833333334</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>UD Las Palmas</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.83</v>
       </c>
-      <c r="G22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="W22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X22" t="n">
         <v>1.35</v>
       </c>
-      <c r="L22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.58</v>
-      </c>
       <c r="Y22" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.11</v>
+        <v>2.94</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.53</v>
+        <v>3.48</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.16</v>
+        <v>1.93</v>
       </c>
       <c r="AG22" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
         <v>44963.70833333334</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UD Las Palmas</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.75</v>
+        <v>1.63</v>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>2.15</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="J23" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="L23" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="T23" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="U23" t="n">
-        <v>1.27</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="W23" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="X23" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.94</v>
+        <v>2.61</v>
       </c>
       <c r="AA23" t="n">
-        <v>3.48</v>
+        <v>1.76</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.41</v>
+        <v>2.61</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.4</v>
+        <v>2.61</v>
       </c>
       <c r="AH23" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
         <v>44963.70833333334</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="L24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.05</v>
       </c>
-      <c r="N24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V24" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="W24" t="n">
-        <v>1.23</v>
+        <v>0.33</v>
       </c>
       <c r="X24" t="n">
-        <v>1.41</v>
+        <v>1.95</v>
       </c>
       <c r="Y24" t="n">
         <v>1.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.61</v>
+        <v>3.15</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.61</v>
+        <v>3.35</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AH24" t="n">
-        <v>3.56</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44963.70833333334</v>
+        <v>44963.75</v>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Almería</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>2.97</v>
       </c>
       <c r="H25" t="n">
-        <v>4.75</v>
+        <v>2.98</v>
       </c>
       <c r="I25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="J25" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="K25" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="M25" t="n">
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="N25" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="V25" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="AB25" t="n">
         <v>8.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.35</v>
+        <v>2.53</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.18</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>8595</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44963.75</v>
+        <v>44963.76041666666</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Rio Ave FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>6.57</v>
       </c>
       <c r="G26" t="n">
-        <v>2.97</v>
+        <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.98</v>
+        <v>1.47</v>
       </c>
       <c r="I26" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="J26" t="n">
-        <v>6.5</v>
+        <v>15.5</v>
       </c>
       <c r="K26" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="L26" t="n">
-        <v>2.62</v>
+        <v>4.22</v>
       </c>
       <c r="M26" t="n">
-        <v>2.35</v>
+        <v>1.76</v>
       </c>
       <c r="N26" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S26" t="n">
-        <v>1.35</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="n">
         <v>1.36</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>2.53</v>
-      </c>
       <c r="AD26" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Chile Primera División</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44963.76041666666</v>
+        <v>44963.79166666666</v>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rio Ave FC</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Ñublense</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>1.57</v>
       </c>
       <c r="G27" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.44</v>
+        <v>5.2</v>
       </c>
       <c r="I27" t="n">
         <v>1.04</v>
       </c>
       <c r="J27" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="K27" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="L27" t="n">
-        <v>4.22</v>
+        <v>3.3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>2.5</v>
+        <v>1.16</v>
       </c>
       <c r="T27" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="U27" t="n">
-        <v>1.15</v>
+        <v>2.25</v>
       </c>
       <c r="V27" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.7</v>
+        <v>1.28</v>
       </c>
       <c r="AB27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.36</v>
+        <v>4.88</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.43</v>
+        <v>1.69</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chile Primera División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
         <v>44963.79166666666</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ñublense</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.57</v>
+        <v>2.95</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="L28" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="M28" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P28" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="S28" t="n">
-        <v>1.16</v>
+        <v>1.52</v>
       </c>
       <c r="T28" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="U28" t="n">
-        <v>2.25</v>
+        <v>1.37</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD28" t="n">
         <v>1.28</v>
       </c>
-      <c r="AB28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1.37</v>
-      </c>
       <c r="AE28" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="AF28" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.84</v>
+        <v>2.51</v>
       </c>
       <c r="AH28" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>8937</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44963.79166666666</v>
+        <v>44963.83333333334</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.15</v>
+        <v>1.79</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.75</v>
+        <v>8.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.03</v>
+        <v>2.43</v>
       </c>
       <c r="AD29" t="n">
         <v>1.28</v>
@@ -3668,13 +3680,13 @@
         <v>1.53</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-06_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-06_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -680,7 +680,7 @@
         <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="N6" t="n">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="H7" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
         <v>1.08</v>
@@ -1203,10 +1203,10 @@
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="N7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.2</v>
       </c>
       <c r="I8" t="n">
         <v>1.08</v>
@@ -1313,10 +1313,10 @@
         <v>2.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="I9" t="n">
         <v>1.11</v>
@@ -1423,10 +1423,10 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.58</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="G10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.76</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1536,7 +1536,7 @@
         <v>1.6</v>
       </c>
       <c r="N10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.82</v>
       </c>
       <c r="M11" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.08</v>
@@ -2083,10 +2083,10 @@
         <v>2.7</v>
       </c>
       <c r="M15" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.51</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G16" t="n">
         <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I16" t="n">
         <v>1.06</v>
@@ -2193,7 +2193,7 @@
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="N16" t="n">
         <v>1.87</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.89</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.98</v>
       </c>
       <c r="M19" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O19" t="n">
         <v>1.48</v>
@@ -2675,16 +2675,16 @@
         <v>3.35</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE20" t="n">
         <v>1.57</v>
@@ -2696,7 +2696,7 @@
         <v>2.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21">
@@ -2853,10 +2853,10 @@
         <v>2.35</v>
       </c>
       <c r="M22" t="n">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="N22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="O22" t="n">
         <v>1.62</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
         <v>3.65</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2966,7 +2966,7 @@
         <v>2.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G24" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
         <v>1.06</v>
@@ -3073,10 +3073,10 @@
         <v>3.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="N24" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.57</v>
+        <v>6.5</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="H26" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="I26" t="n">
         <v>1.04</v>
@@ -3293,10 +3293,10 @@
         <v>4.22</v>
       </c>
       <c r="M26" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="N26" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>2.95</v>
+        <v>2.71</v>
       </c>
       <c r="H28" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="I28" t="n">
         <v>1.11</v>
@@ -3507,16 +3507,16 @@
         <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="L28" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N28" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="O28" t="n">
         <v>1.55</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
         <v>1.05</v>
@@ -3623,10 +3623,10 @@
         <v>3.2</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N29" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O29" t="n">
         <v>1.4</v>
